--- a/dados/tabela/rodada-26.xlsx
+++ b/dados/tabela/rodada-26.xlsx
@@ -673,7 +673,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>América (MG)</t>
+          <t>America (MG)</t>
         </is>
       </c>
       <c r="C21" t="n">
